--- a/MedicalLink/Templates/So_ThuThuatLamSang_ThanNhanTao.xlsx
+++ b/MedicalLink/Templates/So_ThuThuatLamSang_ThanNhanTao.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$R$14</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$Q$13</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>STT</t>
   </si>
@@ -77,9 +77,6 @@
     <t>&amp;=[DATA1].COBHYT</t>
   </si>
   <si>
-    <t>Tên thủ thuật</t>
-  </si>
-  <si>
     <t>Phương pháp thủ thuật</t>
   </si>
   <si>
@@ -110,9 +107,6 @@
     <t>&amp;=[DATA1].SERVICEPRICENAME</t>
   </si>
   <si>
-    <t>&amp;=[DATA1].PHUONGPHAPPTTT</t>
-  </si>
-  <si>
     <t>&amp;=[DATA1].PTTT_PHUONGPHAPVOCAMID</t>
   </si>
   <si>
@@ -125,9 +119,6 @@
     <t>&amp;=[DATA1].PHAUTHUATVIEN</t>
   </si>
   <si>
-    <t>BÁO CÁO THỦ THUẬT THẬN NHÂN TẠO</t>
-  </si>
-  <si>
     <t>Chính</t>
   </si>
   <si>
@@ -150,6 +141,9 @@
   </si>
   <si>
     <t>&amp;=[DATA].TENBENHVIEN</t>
+  </si>
+  <si>
+    <t>SỔ THỦ THUẬT</t>
   </si>
 </sst>
 </file>
@@ -360,7 +354,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -377,9 +371,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -403,9 +394,6 @@
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -739,10 +727,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R12"/>
+  <dimension ref="A1:R11"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="H1" zoomScale="85" zoomScaleNormal="93" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="93" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -755,272 +743,206 @@
     <col min="6" max="6" width="5.7109375" style="6" customWidth="1"/>
     <col min="7" max="8" width="20.140625" style="5" customWidth="1"/>
     <col min="9" max="9" width="37.5703125" style="5" customWidth="1"/>
-    <col min="10" max="11" width="20.140625" style="5" customWidth="1"/>
-    <col min="12" max="12" width="17.140625" style="8" customWidth="1"/>
-    <col min="13" max="13" width="13.28515625" style="5" customWidth="1"/>
-    <col min="14" max="17" width="19.5703125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="19.5703125" style="1" hidden="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="10" max="10" width="20.140625" style="5" customWidth="1"/>
+    <col min="11" max="11" width="17.140625" style="7" customWidth="1"/>
+    <col min="12" max="12" width="13.28515625" style="5" customWidth="1"/>
+    <col min="13" max="16" width="19.5703125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="19.5703125" style="1" hidden="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="3" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="29" t="s">
+    <row r="1" spans="1:17" s="3" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+    </row>
+    <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+    </row>
+    <row r="3" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:17" s="13" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="30"/>
+      <c r="E6" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="30"/>
+      <c r="I6" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="M6" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="N6" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="O6" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
+      <c r="P6" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q6" s="25" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="2" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
+    <row r="7" spans="1:17" s="13" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="20"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="26"/>
     </row>
-    <row r="3" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:18" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="32"/>
-      <c r="E6" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="H6" s="32"/>
-      <c r="I6" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="J6" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="K6" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="L6" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="M6" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="N6" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="O6" s="23" t="s">
+    <row r="8" spans="1:17" s="12" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="L8" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="M8" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="N8" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="O8" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="P6" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q6" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="R6" s="27" t="s">
-        <v>36</v>
-      </c>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
     </row>
-    <row r="7" spans="1:18" s="14" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="22"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="24"/>
-      <c r="P7" s="24"/>
-      <c r="Q7" s="28"/>
-      <c r="R7" s="28"/>
-    </row>
-    <row r="8" spans="1:18" s="7" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="17">
-        <v>1</v>
-      </c>
-      <c r="B8" s="17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L11" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="17">
-        <v>3</v>
-      </c>
-      <c r="D8" s="17">
-        <v>4</v>
-      </c>
-      <c r="E8" s="17">
-        <v>5</v>
-      </c>
-      <c r="F8" s="17">
-        <v>6</v>
-      </c>
-      <c r="G8" s="17">
-        <v>7</v>
-      </c>
-      <c r="H8" s="17">
-        <v>8</v>
-      </c>
-      <c r="I8" s="17">
-        <v>9</v>
-      </c>
-      <c r="J8" s="17">
-        <v>10</v>
-      </c>
-      <c r="K8" s="17">
-        <v>11</v>
-      </c>
-      <c r="L8" s="17">
-        <v>12</v>
-      </c>
-      <c r="M8" s="17">
-        <v>13</v>
-      </c>
-      <c r="N8" s="17">
-        <v>14</v>
-      </c>
-      <c r="O8" s="17">
-        <v>15</v>
-      </c>
-      <c r="P8" s="17">
-        <v>16</v>
-      </c>
-      <c r="Q8" s="17">
-        <v>17</v>
-      </c>
-      <c r="R8" s="17">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" s="13" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="J9" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="K9" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="L9" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="M9" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="N9" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="O9" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="P9" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="12"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="M12" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="N12" s="20"/>
-      <c r="O12" s="20"/>
-      <c r="P12" s="19"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="20">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="J6:J7"/>
     <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="E1:J1"/>
-    <mergeCell ref="E2:J2"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="E1:I1"/>
+    <mergeCell ref="E2:I2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="F6:F7"/>
     <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="G6:H6"/>
-    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="M6:M7"/>
     <mergeCell ref="L6:L7"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="M6:M7"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>

--- a/MedicalLink/Templates/So_ThuThuatLamSang_ThanNhanTao.xlsx
+++ b/MedicalLink/Templates/So_ThuThuatLamSang_ThanNhanTao.xlsx
@@ -107,9 +107,6 @@
     <t>&amp;=[DATA1].SERVICEPRICENAME</t>
   </si>
   <si>
-    <t>&amp;=[DATA1].PTTT_PHUONGPHAPVOCAMID</t>
-  </si>
-  <si>
     <t>&amp;=[DATA1].PHAUTHUATTHUTHUATDATE</t>
   </si>
   <si>
@@ -144,6 +141,9 @@
   </si>
   <si>
     <t>SỔ THỦ THUẬT</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].PTTT_PHUONGPHAPVOCAM</t>
   </si>
 </sst>
 </file>
@@ -401,44 +401,44 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -727,10 +727,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R11"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="93" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="F4" zoomScale="85" zoomScaleNormal="93" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -752,117 +752,117 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="3" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
+      <c r="A1" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
       <c r="L1" s="8"/>
     </row>
     <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="28" t="s">
+      <c r="A2" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
       <c r="J2" s="9"/>
       <c r="K2" s="9"/>
       <c r="L2" s="9"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:17" s="13" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="30"/>
-      <c r="E6" s="19" t="s">
+      <c r="D6" s="29"/>
+      <c r="E6" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="29" t="s">
+      <c r="G6" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="30"/>
-      <c r="I6" s="19" t="s">
+      <c r="H6" s="29"/>
+      <c r="I6" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="J6" s="19" t="s">
+      <c r="J6" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="K6" s="19" t="s">
+      <c r="K6" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="L6" s="19" t="s">
+      <c r="L6" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="M6" s="19" t="s">
+      <c r="M6" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="N6" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="N6" s="21" t="s">
+      <c r="O6" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="O6" s="21" t="s">
+      <c r="P6" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q6" s="22" t="s">
         <v>32</v>
-      </c>
-      <c r="P6" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q6" s="25" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:17" s="13" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="20"/>
-      <c r="B7" s="20"/>
+      <c r="A7" s="21"/>
+      <c r="B7" s="21"/>
       <c r="C7" s="14" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
       <c r="G7" s="14" t="s">
         <v>21</v>
       </c>
       <c r="H7" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="26"/>
-      <c r="Q7" s="26"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="25"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
     </row>
     <row r="8" spans="1:17" s="12" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
@@ -893,36 +893,41 @@
         <v>25</v>
       </c>
       <c r="J8" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K8" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="K8" s="16" t="s">
+      <c r="L8" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="L8" s="11" t="s">
+      <c r="M8" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="M8" s="11" t="s">
-        <v>29</v>
-      </c>
       <c r="N8" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O8" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P8" s="11"/>
       <c r="Q8" s="11"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="L11" s="18" t="s">
+      <c r="L11" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="M11" s="18"/>
-      <c r="N11" s="18"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
       <c r="O11" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="L6:L7"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="J6:J7"/>
@@ -938,11 +943,6 @@
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="G6:H6"/>
-    <mergeCell ref="L11:N11"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="L6:L7"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
